--- a/reporte_estadistico/data/energia/metricsCategorias/metrics_21/cat4/metrics_data_pcon.xlsx
+++ b/reporte_estadistico/data/energia/metricsCategorias/metrics_21/cat4/metrics_data_pcon.xlsx
@@ -1,21 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\energia\metricsCategorias\metrics_21\cat4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_pcon</t>
+  </si>
+  <si>
+    <t>Estrato2_pcon</t>
+  </si>
+  <si>
+    <t>Estrato3_pcon</t>
+  </si>
+  <si>
+    <t>Estrato4_pcon</t>
+  </si>
+  <si>
+    <t>Estrato5_pcon</t>
+  </si>
+  <si>
+    <t>Estrato6_pcon</t>
+  </si>
+  <si>
+    <t>totResidencial_pcon</t>
+  </si>
+  <si>
+    <t>totNoResidencial_pcon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +133,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,86 +430,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_pcon</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>34.25416666666667</v>
       </c>
       <c r="C2">
-        <v>69.04090909090908</v>
+        <v>69.040909090909082</v>
       </c>
       <c r="D2">
         <v>95.15958333333333</v>
@@ -438,78 +492,74 @@
         <v>134.270625</v>
       </c>
       <c r="F2">
-        <v>324025.6475</v>
+        <v>324025.64750000002</v>
       </c>
       <c r="G2">
-        <v>5.067609086959982</v>
+        <v>5.0676090869599824</v>
       </c>
       <c r="H2">
-        <v>33.86497342486076</v>
+        <v>33.864973424860757</v>
       </c>
       <c r="I2">
         <v>95.15958333333333</v>
       </c>
       <c r="J2">
-        <v>25878.051476885</v>
+        <v>25878.051476885001</v>
       </c>
       <c r="K2">
-        <v>669673548.24031</v>
+        <v>669673548.24030995</v>
       </c>
       <c r="L2">
         <v>2603.840777282167</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_pcon</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>32.425</v>
+        <v>32.424999999999997</v>
       </c>
       <c r="C3">
-        <v>89.12704545454545</v>
+        <v>89.127045454545453</v>
       </c>
       <c r="D3">
         <v>118.9041666666667</v>
       </c>
       <c r="E3">
-        <v>179.8529166666667</v>
+        <v>179.85291666666669</v>
       </c>
       <c r="F3">
         <v>229878.8983333334</v>
       </c>
       <c r="G3">
-        <v>9.264068367654925</v>
+        <v>9.2640683676549251</v>
       </c>
       <c r="H3">
-        <v>91.09401300813173</v>
+        <v>91.094013008131725</v>
       </c>
       <c r="I3">
         <v>118.9041666666667</v>
       </c>
       <c r="J3">
-        <v>19896.12354950254</v>
+        <v>19896.123549502539</v>
       </c>
       <c r="K3">
-        <v>395855732.2970694</v>
+        <v>395855732.29706937</v>
       </c>
       <c r="L3">
         <v>2571.986805319551</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_pcon</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>3.566666666666667</v>
+        <v>3.5666666666666669</v>
       </c>
       <c r="C4">
-        <v>96.25749999999999</v>
+        <v>96.257499999999993</v>
       </c>
       <c r="D4">
         <v>130.0690909090909</v>
@@ -518,32 +568,30 @@
         <v>200.2091666666667</v>
       </c>
       <c r="F4">
-        <v>530.2308333333333</v>
+        <v>530.23083333333329</v>
       </c>
       <c r="G4">
-        <v>1.197128068422299</v>
+        <v>1.1971280684222989</v>
       </c>
       <c r="H4">
-        <v>4.565284628896855</v>
+        <v>4.5652846288968547</v>
       </c>
       <c r="I4">
         <v>130.0690909090909</v>
       </c>
       <c r="J4">
-        <v>88.68453483961858</v>
+        <v>88.684534839618578</v>
       </c>
       <c r="K4">
-        <v>7864.946719719521</v>
+        <v>7864.9467197195208</v>
       </c>
       <c r="L4">
-        <v>155.1670133037694</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_pcon</t>
-        </is>
+        <v>155.16701330376941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -555,7 +603,7 @@
         <v>178.315</v>
       </c>
       <c r="E5">
-        <v>289.7175</v>
+        <v>289.71749999999997</v>
       </c>
       <c r="F5">
         <v>4510.625</v>
@@ -564,13 +612,13 @@
         <v>1.335628895235222</v>
       </c>
       <c r="H5">
-        <v>5.193508298870881</v>
+        <v>5.1935082988708814</v>
       </c>
       <c r="I5">
         <v>178.315</v>
       </c>
       <c r="J5">
-        <v>371.9800609862702</v>
+        <v>371.98006098627019</v>
       </c>
       <c r="K5">
         <v>138369.1657713493</v>
@@ -579,23 +627,21 @@
         <v>240.6525311962134</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_pcon</t>
-        </is>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>181.8502083333333</v>
+        <v>181.85020833333331</v>
       </c>
       <c r="D6">
-        <v>285.3233333333334</v>
+        <v>285.32333333333338</v>
       </c>
       <c r="E6">
-        <v>474.4227272727273</v>
+        <v>474.42272727272729</v>
       </c>
       <c r="F6">
         <v>9821</v>
@@ -604,133 +650,127 @@
         <v>3.843212603810843</v>
       </c>
       <c r="H6">
-        <v>18.17420001179997</v>
+        <v>18.174200011799972</v>
       </c>
       <c r="I6">
-        <v>285.3233333333334</v>
+        <v>285.32333333333338</v>
       </c>
       <c r="J6">
-        <v>1364.382809228733</v>
+        <v>1364.3828092287331</v>
       </c>
       <c r="K6">
-        <v>1861540.450118889</v>
+        <v>1861540.4501188891</v>
       </c>
       <c r="L6">
-        <v>662.6452970741643</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_pcon</t>
-        </is>
+        <v>662.64529707416432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>132.2514393939393</v>
+        <v>132.25143939393931</v>
       </c>
       <c r="D7">
-        <v>293.9266666666667</v>
+        <v>293.92666666666668</v>
       </c>
       <c r="E7">
-        <v>457.5160416666666</v>
+        <v>457.51604166666658</v>
       </c>
       <c r="F7">
         <v>3258</v>
       </c>
       <c r="G7">
-        <v>3.097115236157096</v>
+        <v>3.0971152361570962</v>
       </c>
       <c r="H7">
-        <v>16.15628919873083</v>
+        <v>16.156289198730828</v>
       </c>
       <c r="I7">
-        <v>293.9266666666667</v>
+        <v>293.92666666666668</v>
       </c>
       <c r="J7">
-        <v>525.8430644305707</v>
+        <v>525.84306443057073</v>
       </c>
       <c r="K7">
-        <v>276510.9284097333</v>
+        <v>276510.92840973329</v>
       </c>
       <c r="L7">
-        <v>413.5256416797488</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_pcon</t>
-        </is>
+        <v>413.52564167974879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>32.43625</v>
+        <v>32.436250000000001</v>
       </c>
       <c r="C8">
-        <v>82.31755681818181</v>
+        <v>82.317556818181814</v>
       </c>
       <c r="D8">
         <v>114.1529166666667</v>
       </c>
       <c r="E8">
-        <v>185.0664583333333</v>
+        <v>185.06645833333329</v>
       </c>
       <c r="F8">
-        <v>324035.1966666667</v>
+        <v>324035.19666666671</v>
       </c>
       <c r="G8">
         <v>12.40377963094417</v>
       </c>
       <c r="H8">
-        <v>166.4344498322155</v>
+        <v>166.43444983221551</v>
       </c>
       <c r="I8">
         <v>114.1529166666667</v>
       </c>
       <c r="J8">
-        <v>32458.87610560196</v>
+        <v>32458.876105601961</v>
       </c>
       <c r="K8">
         <v>1053578638.038818</v>
       </c>
       <c r="L8">
-        <v>5058.628719171859</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>totNoResidencial_pcon</t>
-        </is>
+        <v>5058.6287191718593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>107.7808333333333</v>
+        <v>107.78083333333331</v>
       </c>
       <c r="C9">
-        <v>390.1731818181819</v>
+        <v>390.17318181818189</v>
       </c>
       <c r="D9">
         <v>628.03625</v>
       </c>
       <c r="E9">
-        <v>1114.41125</v>
+        <v>1114.4112500000001</v>
       </c>
       <c r="F9">
-        <v>9528.305416666666</v>
+        <v>9528.3054166666661</v>
       </c>
       <c r="G9">
-        <v>2.174435201737725</v>
+        <v>2.1744352017377251</v>
       </c>
       <c r="H9">
-        <v>8.230349815835329</v>
+        <v>8.2303498158353285</v>
       </c>
       <c r="I9">
         <v>628.03625</v>
       </c>
       <c r="J9">
-        <v>1217.567560594348</v>
+        <v>1217.5675605943479</v>
       </c>
       <c r="K9">
         <v>1482470.76461167</v>
